--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tlr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,123 +519,371 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>100.153880290665</v>
+        <v>1.529781</v>
       </c>
       <c r="H2">
-        <v>100.153880290665</v>
+        <v>4.589343</v>
       </c>
       <c r="I2">
-        <v>0.9450827320331565</v>
+        <v>0.01315047351877542</v>
       </c>
       <c r="J2">
-        <v>0.9450827320331565</v>
+        <v>0.01315047351877542</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.48725504747486</v>
+        <v>51.23401333333334</v>
       </c>
       <c r="N2">
-        <v>3.48725504747486</v>
+        <v>153.70204</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9688226788583661</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9688226788583661</v>
       </c>
       <c r="Q2">
-        <v>349.2621245678144</v>
+        <v>78.37682015108</v>
       </c>
       <c r="R2">
-        <v>349.2621245678144</v>
+        <v>705.39138135972</v>
       </c>
       <c r="S2">
-        <v>0.9450827320331565</v>
+        <v>0.01274047698271601</v>
       </c>
       <c r="T2">
-        <v>0.9450827320331565</v>
+        <v>0.01274047698271601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>1.529781</v>
+      </c>
+      <c r="H3">
+        <v>4.589343</v>
+      </c>
+      <c r="I3">
+        <v>0.01315047351877542</v>
+      </c>
+      <c r="J3">
+        <v>0.01315047351877542</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>1.648742666666666</v>
+      </c>
+      <c r="N3">
+        <v>4.946228</v>
+      </c>
+      <c r="O3">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="P3">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="Q3">
+        <v>2.522215205355999</v>
+      </c>
+      <c r="R3">
+        <v>22.699936848204</v>
+      </c>
+      <c r="S3">
+        <v>0.0004099965360594135</v>
+      </c>
+      <c r="T3">
+        <v>0.0004099965360594136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>103.676216</v>
+      </c>
+      <c r="H4">
+        <v>311.028648</v>
+      </c>
+      <c r="I4">
+        <v>0.8912330150752564</v>
+      </c>
+      <c r="J4">
+        <v>0.8912330150752563</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>51.23401333333334</v>
+      </c>
+      <c r="N4">
+        <v>153.70204</v>
+      </c>
+      <c r="O4">
+        <v>0.9688226788583661</v>
+      </c>
+      <c r="P4">
+        <v>0.9688226788583661</v>
+      </c>
+      <c r="Q4">
+        <v>5311.748632893547</v>
+      </c>
+      <c r="R4">
+        <v>47805.73769604192</v>
+      </c>
+      <c r="S4">
+        <v>0.8634467571522285</v>
+      </c>
+      <c r="T4">
+        <v>0.8634467571522284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>103.676216</v>
+      </c>
+      <c r="H5">
+        <v>311.028648</v>
+      </c>
+      <c r="I5">
+        <v>0.8912330150752564</v>
+      </c>
+      <c r="J5">
+        <v>0.8912330150752563</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.648742666666666</v>
+      </c>
+      <c r="N5">
+        <v>4.946228</v>
+      </c>
+      <c r="O5">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="P5">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="Q5">
+        <v>170.9354008377493</v>
+      </c>
+      <c r="R5">
+        <v>1538.418607539744</v>
+      </c>
+      <c r="S5">
+        <v>0.02778625792302791</v>
+      </c>
+      <c r="T5">
+        <v>0.02778625792302791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="G6">
+        <v>11.12297</v>
+      </c>
+      <c r="H6">
+        <v>33.36891</v>
+      </c>
+      <c r="I6">
+        <v>0.09561651140596822</v>
+      </c>
+      <c r="J6">
+        <v>0.09561651140596822</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>5.81978412620987</v>
-      </c>
-      <c r="H3">
-        <v>5.81978412620987</v>
-      </c>
-      <c r="I3">
-        <v>0.05491726796684355</v>
-      </c>
-      <c r="J3">
-        <v>0.05491726796684355</v>
-      </c>
-      <c r="K3">
+      <c r="M6">
+        <v>51.23401333333334</v>
+      </c>
+      <c r="N6">
+        <v>153.70204</v>
+      </c>
+      <c r="O6">
+        <v>0.9688226788583661</v>
+      </c>
+      <c r="P6">
+        <v>0.9688226788583661</v>
+      </c>
+      <c r="Q6">
+        <v>569.8743932862667</v>
+      </c>
+      <c r="R6">
+        <v>5128.869539576401</v>
+      </c>
+      <c r="S6">
+        <v>0.09263544472342165</v>
+      </c>
+      <c r="T6">
+        <v>0.09263544472342165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>3.48725504747486</v>
-      </c>
-      <c r="N3">
-        <v>3.48725504747486</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>20.29507156933944</v>
-      </c>
-      <c r="R3">
-        <v>20.29507156933944</v>
-      </c>
-      <c r="S3">
-        <v>0.05491726796684355</v>
-      </c>
-      <c r="T3">
-        <v>0.05491726796684355</v>
+      <c r="G7">
+        <v>11.12297</v>
+      </c>
+      <c r="H7">
+        <v>33.36891</v>
+      </c>
+      <c r="I7">
+        <v>0.09561651140596822</v>
+      </c>
+      <c r="J7">
+        <v>0.09561651140596822</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>1.648742666666666</v>
+      </c>
+      <c r="N7">
+        <v>4.946228</v>
+      </c>
+      <c r="O7">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="P7">
+        <v>0.03117732114163389</v>
+      </c>
+      <c r="Q7">
+        <v>18.33891521905333</v>
+      </c>
+      <c r="R7">
+        <v>165.05023697148</v>
+      </c>
+      <c r="S7">
+        <v>0.002981066682546571</v>
+      </c>
+      <c r="T7">
+        <v>0.002981066682546571</v>
       </c>
     </row>
   </sheetData>
